--- a/CasosNacionalporfecha.xlsx
+++ b/CasosNacionalporfecha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>date</t>
   </si>
@@ -476,6 +476,15 @@
   </si>
   <si>
     <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
   </si>
 </sst>
 </file>
@@ -833,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2197,7 +2206,7 @@
         <v>2124</v>
       </c>
       <c r="D100">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2267,7 +2276,7 @@
         <v>2357</v>
       </c>
       <c r="D105">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2281,7 +2290,7 @@
         <v>3019</v>
       </c>
       <c r="D106">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2365,7 +2374,7 @@
         <v>4149</v>
       </c>
       <c r="D112">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2393,7 +2402,7 @@
         <v>3274</v>
       </c>
       <c r="D114">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2449,7 +2458,7 @@
         <v>3395</v>
       </c>
       <c r="D118">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2477,7 +2486,7 @@
         <v>3721</v>
       </c>
       <c r="D120">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2491,7 +2500,7 @@
         <v>3171</v>
       </c>
       <c r="D121">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2519,7 +2528,7 @@
         <v>4144</v>
       </c>
       <c r="D123">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2575,7 +2584,7 @@
         <v>5083</v>
       </c>
       <c r="D127">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2631,7 +2640,7 @@
         <v>8037</v>
       </c>
       <c r="D131">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2645,7 +2654,7 @@
         <v>8934</v>
       </c>
       <c r="D132">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2659,7 +2668,7 @@
         <v>8560</v>
       </c>
       <c r="D133">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2673,7 +2682,7 @@
         <v>6578</v>
       </c>
       <c r="D134">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2687,7 +2696,7 @@
         <v>6727</v>
       </c>
       <c r="D135">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2701,7 +2710,7 @@
         <v>7033</v>
       </c>
       <c r="D136">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2715,7 +2724,7 @@
         <v>7390</v>
       </c>
       <c r="D137">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2729,7 +2738,7 @@
         <v>7945</v>
       </c>
       <c r="D138">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2743,7 +2752,7 @@
         <v>7168</v>
       </c>
       <c r="D139">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2757,7 +2766,7 @@
         <v>7254</v>
       </c>
       <c r="D140">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2771,7 +2780,7 @@
         <v>8181</v>
       </c>
       <c r="D141">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2785,7 +2794,7 @@
         <v>8125</v>
       </c>
       <c r="D142">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2799,7 +2808,7 @@
         <v>10284</v>
       </c>
       <c r="D143">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2813,7 +2822,7 @@
         <v>8670</v>
       </c>
       <c r="D144">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2827,7 +2836,7 @@
         <v>9965</v>
       </c>
       <c r="D145">
-        <v>293</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2841,7 +2850,7 @@
         <v>9488</v>
       </c>
       <c r="D146">
-        <v>243</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2855,7 +2864,7 @@
         <v>10673</v>
       </c>
       <c r="D147">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2869,7 +2878,7 @@
         <v>11470</v>
       </c>
       <c r="D148">
-        <v>204</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2883,7 +2892,7 @@
         <v>10199</v>
       </c>
       <c r="D149">
-        <v>207</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2897,7 +2906,7 @@
         <v>7129</v>
       </c>
       <c r="D150">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2911,7 +2920,7 @@
         <v>10735</v>
       </c>
       <c r="D151">
-        <v>151</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2925,7 +2934,49 @@
         <v>11996</v>
       </c>
       <c r="D152">
-        <v>21</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153">
+        <v>9486</v>
+      </c>
+      <c r="D153">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154">
+        <v>9674</v>
+      </c>
+      <c r="D154">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155">
+        <v>10611</v>
+      </c>
+      <c r="D155">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
